--- a/predictions/прогнозы_GP_Neural1.xlsx
+++ b/predictions/прогнозы_GP_Neural1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18616792.45342936</v>
+        <v>18447084.95165208</v>
       </c>
       <c r="C2" t="n">
-        <v>18667568.50266861</v>
+        <v>18489118.62083732</v>
       </c>
       <c r="D2" t="n">
-        <v>18715337.94863062</v>
+        <v>18528531.0483726</v>
       </c>
       <c r="E2" t="n">
-        <v>18760306.25638271</v>
+        <v>18565510.98117603</v>
       </c>
       <c r="F2" t="n">
-        <v>18802663.6214572</v>
+        <v>18600232.25457792</v>
       </c>
       <c r="G2" t="n">
-        <v>18842586.12524255</v>
+        <v>18632855.01292614</v>
       </c>
       <c r="H2" t="n">
-        <v>18880236.8106259</v>
+        <v>18663526.8348469</v>
       </c>
       <c r="I2" t="n">
-        <v>18915766.68125245</v>
+        <v>18692383.76892545</v>
       </c>
       <c r="J2" t="n">
-        <v>18949315.62809943</v>
+        <v>18719551.28560731</v>
       </c>
       <c r="K2" t="n">
-        <v>18981013.28733072</v>
+        <v>18745145.15109391</v>
       </c>
       <c r="L2" t="n">
-        <v>19010979.83346318</v>
+        <v>18769272.22884586</v>
       </c>
       <c r="M2" t="n">
-        <v>19039326.71191207</v>
+        <v>18792031.21411853</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6331101.469512045</v>
+        <v>6658082.70493561</v>
       </c>
       <c r="C3" t="n">
-        <v>6403869.749759078</v>
+        <v>6731283.635331601</v>
       </c>
       <c r="D3" t="n">
-        <v>6473006.7826249</v>
+        <v>6800773.642961532</v>
       </c>
       <c r="E3" t="n">
-        <v>6538705.586923659</v>
+        <v>6866755.442698598</v>
       </c>
       <c r="F3" t="n">
-        <v>6601150.338889658</v>
+        <v>6929421.857920885</v>
       </c>
       <c r="G3" t="n">
-        <v>6660516.426664054</v>
+        <v>6988955.975966245</v>
       </c>
       <c r="H3" t="n">
-        <v>6716970.578615487</v>
+        <v>7045531.369949311</v>
       </c>
       <c r="I3" t="n">
-        <v>6770671.050019145</v>
+        <v>7099312.371527314</v>
       </c>
       <c r="J3" t="n">
-        <v>6821767.854917943</v>
+        <v>7150454.381631076</v>
       </c>
       <c r="K3" t="n">
-        <v>6870403.032004058</v>
+        <v>7199104.208304852</v>
       </c>
       <c r="L3" t="n">
-        <v>6916710.935144365</v>
+        <v>7245400.422644824</v>
       </c>
       <c r="M3" t="n">
-        <v>6960818.540733099</v>
+        <v>7289473.725404531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6282394.290289879</v>
+        <v>12891634.83674037</v>
       </c>
       <c r="C4" t="n">
-        <v>6351146.08526814</v>
+        <v>13051131.289415</v>
       </c>
       <c r="D4" t="n">
-        <v>6416689.096527994</v>
+        <v>13203187.98400104</v>
       </c>
       <c r="E4" t="n">
-        <v>6479173.656929851</v>
+        <v>13348152.29698956</v>
       </c>
       <c r="F4" t="n">
-        <v>6538745.290604353</v>
+        <v>13486360.81920958</v>
       </c>
       <c r="G4" t="n">
-        <v>6595544.450289845</v>
+        <v>13618138.6605134</v>
       </c>
       <c r="H4" t="n">
-        <v>6649706.338652253</v>
+        <v>13743798.96771574</v>
       </c>
       <c r="I4" t="n">
-        <v>6701360.801643968</v>
+        <v>13863642.62440431</v>
       </c>
       <c r="J4" t="n">
-        <v>6750632.283100784</v>
+        <v>13977958.10439801</v>
       </c>
       <c r="K4" t="n">
-        <v>6797639.830780625</v>
+        <v>14087021.45378172</v>
       </c>
       <c r="L4" t="n">
-        <v>6842497.145160556</v>
+        <v>14191096.37939811</v>
       </c>
       <c r="M4" t="n">
-        <v>6885312.663228512</v>
+        <v>14290434.42426169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3808788.197668672</v>
+        <v>19505698.48422158</v>
       </c>
       <c r="C5" t="n">
-        <v>3862487.968469679</v>
+        <v>19606520.08832014</v>
       </c>
       <c r="D5" t="n">
-        <v>3913704.578638077</v>
+        <v>19702013.34285009</v>
       </c>
       <c r="E5" t="n">
-        <v>3962551.905819535</v>
+        <v>19792486.54117167</v>
       </c>
       <c r="F5" t="n">
-        <v>4009140.551013708</v>
+        <v>19878230.76759011</v>
       </c>
       <c r="G5" t="n">
-        <v>4053577.567065954</v>
+        <v>19959520.5568099</v>
       </c>
       <c r="H5" t="n">
-        <v>4095966.262708127</v>
+        <v>20036614.58925909</v>
       </c>
       <c r="I5" t="n">
-        <v>4136406.071169615</v>
+        <v>20109756.40781385</v>
       </c>
       <c r="J5" t="n">
-        <v>4174992.47353816</v>
+        <v>20179175.14399308</v>
       </c>
       <c r="K5" t="n">
-        <v>4211816.968125701</v>
+        <v>20245086.24400431</v>
       </c>
       <c r="L5" t="n">
-        <v>4246967.078130841</v>
+        <v>20307692.18687016</v>
       </c>
       <c r="M5" t="n">
-        <v>4280526.390818775</v>
+        <v>20367183.18860477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8704526.829025298</v>
+        <v>3126181.958834589</v>
       </c>
       <c r="C6" t="n">
-        <v>8752675.607498348</v>
+        <v>3104001.520180821</v>
       </c>
       <c r="D6" t="n">
-        <v>8798309.095692545</v>
+        <v>3082786.181489483</v>
       </c>
       <c r="E6" t="n">
-        <v>8841573.17767936</v>
+        <v>3062498.956941307</v>
       </c>
       <c r="F6" t="n">
-        <v>8882605.377845943</v>
+        <v>3043102.541901857</v>
       </c>
       <c r="G6" t="n">
-        <v>8921535.228139579</v>
+        <v>3024559.708952039</v>
       </c>
       <c r="H6" t="n">
-        <v>8958484.642167449</v>
+        <v>3006833.624785528</v>
       </c>
       <c r="I6" t="n">
-        <v>8993568.290817708</v>
+        <v>2989888.100391239</v>
       </c>
       <c r="J6" t="n">
-        <v>9026893.975167215</v>
+        <v>2973687.785211697</v>
       </c>
       <c r="K6" t="n">
-        <v>9058562.993273824</v>
+        <v>2958198.31448853</v>
       </c>
       <c r="L6" t="n">
-        <v>9088670.498227209</v>
+        <v>2943386.417667866</v>
       </c>
       <c r="M6" t="n">
-        <v>9117305.845444083</v>
+        <v>2929219.994595379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2475632.529528193</v>
+        <v>6211562.880018771</v>
       </c>
       <c r="C7" t="n">
-        <v>2484600.807646606</v>
+        <v>6260806.815112174</v>
       </c>
       <c r="D7" t="n">
-        <v>2493096.807204805</v>
+        <v>6307597.418864191</v>
       </c>
       <c r="E7" t="n">
-        <v>2501147.447086312</v>
+        <v>6352064.797678143</v>
       </c>
       <c r="F7" t="n">
-        <v>2508778.219246577</v>
+        <v>6394333.054639399</v>
       </c>
       <c r="G7" t="n">
-        <v>2516013.228351142</v>
+        <v>6434520.349966377</v>
       </c>
       <c r="H7" t="n">
-        <v>2522875.237877995</v>
+        <v>6472739.004023284</v>
       </c>
       <c r="I7" t="n">
-        <v>2529385.720859807</v>
+        <v>6509095.63425225</v>
       </c>
       <c r="J7" t="n">
-        <v>2535564.913764149</v>
+        <v>6543691.318523884</v>
       </c>
       <c r="K7" t="n">
-        <v>2541431.872266814</v>
+        <v>6576621.77844885</v>
       </c>
       <c r="L7" t="n">
-        <v>2547004.527910765</v>
+        <v>6607977.577156484</v>
       </c>
       <c r="M7" t="n">
-        <v>2552299.744835295</v>
+        <v>6637844.326893717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1341323.600014783</v>
+        <v>17470297.59372915</v>
       </c>
       <c r="C8" t="n">
-        <v>1346341.608518548</v>
+        <v>17479657.25827579</v>
       </c>
       <c r="D8" t="n">
-        <v>1351090.690151095</v>
+        <v>17488481.10923269</v>
       </c>
       <c r="E8" t="n">
-        <v>1355587.195797302</v>
+        <v>17496793.16007523</v>
       </c>
       <c r="F8" t="n">
-        <v>1359846.433025662</v>
+        <v>17504617.19490075</v>
       </c>
       <c r="G8" t="n">
-        <v>1363882.729773283</v>
+        <v>17511976.61330928</v>
       </c>
       <c r="H8" t="n">
-        <v>1367709.495023139</v>
+        <v>17518894.30489628</v>
       </c>
       <c r="I8" t="n">
-        <v>1371339.276449643</v>
+        <v>17525392.54984434</v>
       </c>
       <c r="J8" t="n">
-        <v>1374783.815049361</v>
+        <v>17531492.94228049</v>
       </c>
       <c r="K8" t="n">
-        <v>1378054.096800428</v>
+        <v>17537216.33331008</v>
       </c>
       <c r="L8" t="n">
-        <v>1381160.401419953</v>
+        <v>17542582.79089519</v>
       </c>
       <c r="M8" t="n">
-        <v>1384112.3483008</v>
+        <v>17547611.57401213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2141799.291102856</v>
+        <v>24027813.76644093</v>
       </c>
       <c r="C9" t="n">
-        <v>2169589.981810361</v>
+        <v>24119549.06228667</v>
       </c>
       <c r="D9" t="n">
-        <v>2196052.763828278</v>
+        <v>24206322.53209299</v>
       </c>
       <c r="E9" t="n">
-        <v>2221252.717396319</v>
+        <v>24288436.96492672</v>
       </c>
       <c r="F9" t="n">
-        <v>2245252.543626368</v>
+        <v>24366175.97289479</v>
       </c>
       <c r="G9" t="n">
-        <v>2268112.486494958</v>
+        <v>24439805.11761552</v>
       </c>
       <c r="H9" t="n">
-        <v>2289890.290345401</v>
+        <v>24509572.99202806</v>
       </c>
       <c r="I9" t="n">
-        <v>2310641.18696478</v>
+        <v>24575712.2554791</v>
       </c>
       <c r="J9" t="n">
-        <v>2330417.907036513</v>
+        <v>24638440.62091351</v>
       </c>
       <c r="K9" t="n">
-        <v>2349270.711436063</v>
+        <v>24697961.79361957</v>
       </c>
       <c r="L9" t="n">
-        <v>2367247.438444227</v>
+        <v>24754466.36157459</v>
       </c>
       <c r="M9" t="n">
-        <v>2384393.563505858</v>
+        <v>24808132.6379292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5264666.630387038</v>
+        <v>9243874.300513387</v>
       </c>
       <c r="C10" t="n">
-        <v>5293475.465460867</v>
+        <v>9347921.103606343</v>
       </c>
       <c r="D10" t="n">
-        <v>5320856.016177028</v>
+        <v>9446786.979407609</v>
       </c>
       <c r="E10" t="n">
-        <v>5346883.521318972</v>
+        <v>9540746.168155193</v>
       </c>
       <c r="F10" t="n">
-        <v>5371629.714827567</v>
+        <v>9630060.448042393</v>
       </c>
       <c r="G10" t="n">
-        <v>5395162.87879014</v>
+        <v>9714979.206359386</v>
       </c>
       <c r="H10" t="n">
-        <v>5417547.916954517</v>
+        <v>9795739.612991393</v>
       </c>
       <c r="I10" t="n">
-        <v>5438846.444325238</v>
+        <v>9872566.875442147</v>
       </c>
       <c r="J10" t="n">
-        <v>5459116.889054775</v>
+        <v>9945674.557478726</v>
       </c>
       <c r="K10" t="n">
-        <v>5478414.603430808</v>
+        <v>10015264.9461391</v>
       </c>
       <c r="L10" t="n">
-        <v>5496791.981231421</v>
+        <v>10081529.45420253</v>
       </c>
       <c r="M10" t="n">
-        <v>5514298.579186022</v>
+        <v>10144649.04724944</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528801.476936162</v>
+        <v>10748558.94325429</v>
       </c>
       <c r="C11" t="n">
-        <v>2526686.418308392</v>
+        <v>10854137.15765679</v>
       </c>
       <c r="D11" t="n">
-        <v>2524450.602276519</v>
+        <v>10954236.92453712</v>
       </c>
       <c r="E11" t="n">
-        <v>2522125.477582365</v>
+        <v>11049171.48664236</v>
       </c>
       <c r="F11" t="n">
-        <v>2519737.697252646</v>
+        <v>11139236.9782086</v>
       </c>
       <c r="G11" t="n">
-        <v>2517309.766704053</v>
+        <v>11224713.00739646</v>
       </c>
       <c r="H11" t="n">
-        <v>2514860.610065788</v>
+        <v>11305863.29304725</v>
       </c>
       <c r="I11" t="n">
-        <v>2512406.064159751</v>
+        <v>11382936.3374911</v>
       </c>
       <c r="J11" t="n">
-        <v>2509959.308677822</v>
+        <v>11456166.12047774</v>
       </c>
       <c r="K11" t="n">
-        <v>2507531.240228012</v>
+        <v>11525772.80213434</v>
       </c>
       <c r="L11" t="n">
-        <v>2505130.797134757</v>
+        <v>11591963.42525291</v>
       </c>
       <c r="M11" t="n">
-        <v>2502765.241104245</v>
+        <v>11654932.60923469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>789672.7945085801</v>
+        <v>37507756.0937686</v>
       </c>
       <c r="C12" t="n">
-        <v>772663.8454166055</v>
+        <v>37574255.78075954</v>
       </c>
       <c r="D12" t="n">
-        <v>756574.5422177613</v>
+        <v>37637189.85883194</v>
       </c>
       <c r="E12" t="n">
-        <v>741347.5427826662</v>
+        <v>37696748.25250888</v>
       </c>
       <c r="F12" t="n">
-        <v>726929.1901696939</v>
+        <v>37753113.14529377</v>
       </c>
       <c r="G12" t="n">
-        <v>713269.3110202644</v>
+        <v>37806458.78501529</v>
       </c>
       <c r="H12" t="n">
-        <v>700321.0155442003</v>
+        <v>37856951.40732861</v>
       </c>
       <c r="I12" t="n">
-        <v>688040.5014847368</v>
+        <v>37904749.25513273</v>
       </c>
       <c r="J12" t="n">
-        <v>676386.8638217747</v>
+        <v>37950002.67488569</v>
       </c>
       <c r="K12" t="n">
-        <v>665321.91148513</v>
+        <v>37992854.27348843</v>
       </c>
       <c r="L12" t="n">
-        <v>654809.9919349737</v>
+        <v>38033439.12202221</v>
       </c>
       <c r="M12" t="n">
-        <v>644817.8241605684</v>
+        <v>38071884.99469674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1119737.107656308</v>
+        <v>36771945.09615757</v>
       </c>
       <c r="C13" t="n">
-        <v>1132699.839852124</v>
+        <v>36775465.48965214</v>
       </c>
       <c r="D13" t="n">
-        <v>1145022.620917551</v>
+        <v>36778652.93615476</v>
       </c>
       <c r="E13" t="n">
-        <v>1156738.928562053</v>
+        <v>36781516.3509324</v>
       </c>
       <c r="F13" t="n">
-        <v>1167880.750008658</v>
+        <v>36784066.34563547</v>
       </c>
       <c r="G13" t="n">
-        <v>1178478.586970896</v>
+        <v>36786314.7793285</v>
       </c>
       <c r="H13" t="n">
-        <v>1188561.47341191</v>
+        <v>36788274.38446032</v>
       </c>
       <c r="I13" t="n">
-        <v>1198157.003515318</v>
+        <v>36789958.45770751</v>
       </c>
       <c r="J13" t="n">
-        <v>1207291.367668301</v>
+        <v>36791380.60660542</v>
       </c>
       <c r="K13" t="n">
-        <v>1215989.394580193</v>
+        <v>36792554.5438686</v>
       </c>
       <c r="L13" t="n">
-        <v>1224274.59795323</v>
+        <v>36793493.92225008</v>
       </c>
       <c r="M13" t="n">
-        <v>1232169.226369217</v>
+        <v>36794212.20368412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>542758.3826085944</v>
+        <v>499474.4060613029</v>
       </c>
       <c r="C14" t="n">
-        <v>529846.6731757671</v>
+        <v>505565.9764963463</v>
       </c>
       <c r="D14" t="n">
-        <v>517608.322678905</v>
+        <v>511357.5388238877</v>
       </c>
       <c r="E14" t="n">
-        <v>506004.9217677452</v>
+        <v>516864.5753838457</v>
       </c>
       <c r="F14" t="n">
-        <v>495000.0249347221</v>
+        <v>522101.9215342179</v>
       </c>
       <c r="G14" t="n">
-        <v>484559.1260130778</v>
+        <v>527083.7586143091</v>
       </c>
       <c r="H14" t="n">
-        <v>474649.6151858643</v>
+        <v>531823.6143381186</v>
       </c>
       <c r="I14" t="n">
-        <v>465240.722364597</v>
+        <v>536334.3692320362</v>
       </c>
       <c r="J14" t="n">
-        <v>456303.4508461766</v>
+        <v>540628.2679156139</v>
       </c>
       <c r="K14" t="n">
-        <v>447810.5043722428</v>
+        <v>544716.9341960698</v>
       </c>
       <c r="L14" t="n">
-        <v>439736.2100786902</v>
+        <v>548611.3890969679</v>
       </c>
       <c r="M14" t="n">
-        <v>432056.4392917939</v>
+        <v>552322.0710764676</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>522551.5236364808</v>
+        <v>3528466.781733021</v>
       </c>
       <c r="C15" t="n">
-        <v>528103.9909100346</v>
+        <v>3546885.866356879</v>
       </c>
       <c r="D15" t="n">
-        <v>533373.7161036134</v>
+        <v>3564314.891049638</v>
       </c>
       <c r="E15" t="n">
-        <v>538376.329579737</v>
+        <v>3580814.282698646</v>
       </c>
       <c r="F15" t="n">
-        <v>543126.6704523116</v>
+        <v>3596440.626561888</v>
       </c>
       <c r="G15" t="n">
-        <v>547638.8043317907</v>
+        <v>3611246.89358715</v>
       </c>
       <c r="H15" t="n">
-        <v>551926.0453272816</v>
+        <v>3625282.658543624</v>
       </c>
       <c r="I15" t="n">
-        <v>556000.9812185913</v>
+        <v>3638594.308593884</v>
       </c>
       <c r="J15" t="n">
-        <v>559875.5008929502</v>
+        <v>3651225.242084943</v>
       </c>
       <c r="K15" t="n">
-        <v>563560.8232977204</v>
+        <v>3663216.057469599</v>
       </c>
       <c r="L15" t="n">
-        <v>567067.5272894856</v>
+        <v>3674604.732373491</v>
       </c>
       <c r="M15" t="n">
-        <v>570405.5818809401</v>
+        <v>3685426.792930461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688377.0512256324</v>
+        <v>9043208.409966432</v>
       </c>
       <c r="C16" t="n">
-        <v>696413.3261520118</v>
+        <v>9088403.574442163</v>
       </c>
       <c r="D16" t="n">
-        <v>704051.1232194602</v>
+        <v>9131070.051344968</v>
       </c>
       <c r="E16" t="n">
-        <v>711311.3798279688</v>
+        <v>9171369.561070457</v>
       </c>
       <c r="F16" t="n">
-        <v>718214.1011823677</v>
+        <v>9209452.963748351</v>
       </c>
       <c r="G16" t="n">
-        <v>724778.3619131409</v>
+        <v>9245460.940113015</v>
       </c>
       <c r="H16" t="n">
-        <v>731022.3161589392</v>
+        <v>9279524.644798994</v>
       </c>
       <c r="I16" t="n">
-        <v>736963.2144092619</v>
+        <v>9311766.329934068</v>
       </c>
       <c r="J16" t="n">
-        <v>742617.4256505258</v>
+        <v>9342299.937739454</v>
       </c>
       <c r="K16" t="n">
-        <v>748000.4635729901</v>
+        <v>9371231.661529437</v>
       </c>
       <c r="L16" t="n">
-        <v>753127.0157919824</v>
+        <v>9398660.475051649</v>
       </c>
       <c r="M16" t="n">
-        <v>758010.9752050936</v>
+        <v>9424678.630522624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2832159.267898709</v>
+        <v>4440814.07958062</v>
       </c>
       <c r="C17" t="n">
-        <v>2863006.20865491</v>
+        <v>4463130.817264594</v>
       </c>
       <c r="D17" t="n">
-        <v>2892283.862950087</v>
+        <v>4484182.135302238</v>
       </c>
       <c r="E17" t="n">
-        <v>2920078.435558125</v>
+        <v>4504052.187548809</v>
       </c>
       <c r="F17" t="n">
-        <v>2946471.87811698</v>
+        <v>4522818.966364786</v>
       </c>
       <c r="G17" t="n">
-        <v>2971541.962080613</v>
+        <v>4540554.774530791</v>
       </c>
       <c r="H17" t="n">
-        <v>2995362.379246801</v>
+        <v>4557326.661324345</v>
       </c>
       <c r="I17" t="n">
-        <v>3018002.86332719</v>
+        <v>4573196.825240068</v>
       </c>
       <c r="J17" t="n">
-        <v>3039529.327085763</v>
+        <v>4588222.98571407</v>
       </c>
       <c r="K17" t="n">
-        <v>3060004.010454968</v>
+        <v>4602458.726087838</v>
       </c>
       <c r="L17" t="n">
-        <v>3079485.635838643</v>
+        <v>4615953.809917621</v>
       </c>
       <c r="M17" t="n">
-        <v>3098029.567482069</v>
+        <v>4628754.472607389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>969333.8597465865</v>
+        <v>3215315.598316422</v>
       </c>
       <c r="C18" t="n">
-        <v>965568.984080717</v>
+        <v>3214697.013330944</v>
       </c>
       <c r="D18" t="n">
-        <v>961968.0907738395</v>
+        <v>3214084.652356509</v>
       </c>
       <c r="E18" t="n">
-        <v>958524.5499428138</v>
+        <v>3213480.269980326</v>
       </c>
       <c r="F18" t="n">
-        <v>955231.7707432359</v>
+        <v>3212885.191969657</v>
       </c>
       <c r="G18" t="n">
-        <v>952083.2502323873</v>
+        <v>3212300.398237864</v>
       </c>
       <c r="H18" t="n">
-        <v>949072.6119244993</v>
+        <v>3211726.590482388</v>
       </c>
       <c r="I18" t="n">
-        <v>946193.6356851831</v>
+        <v>3211164.24728555</v>
       </c>
       <c r="J18" t="n">
-        <v>943440.2803733423</v>
+        <v>3210613.668971019</v>
       </c>
       <c r="K18" t="n">
-        <v>940806.7004340366</v>
+        <v>3210075.014086926</v>
       </c>
       <c r="L18" t="n">
-        <v>938287.2574716434</v>
+        <v>3209548.329053264</v>
       </c>
       <c r="M18" t="n">
-        <v>935876.5276760422</v>
+        <v>3209033.572225524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52006.69383188663</v>
+        <v>5332390.416290808</v>
       </c>
       <c r="C19" t="n">
-        <v>50336.07067885739</v>
+        <v>5334604.038788021</v>
       </c>
       <c r="D19" t="n">
-        <v>48756.17327304627</v>
+        <v>5336674.971659407</v>
       </c>
       <c r="E19" t="n">
-        <v>47261.21225309698</v>
+        <v>5338611.022020645</v>
       </c>
       <c r="F19" t="n">
-        <v>45845.79233466228</v>
+        <v>5340419.661991283</v>
       </c>
       <c r="G19" t="n">
-        <v>44504.88682774222</v>
+        <v>5342108.030726634</v>
       </c>
       <c r="H19" t="n">
-        <v>43233.81327369623</v>
+        <v>5343682.9380772</v>
       </c>
       <c r="I19" t="n">
-        <v>42028.21027503256</v>
+        <v>5345150.869745307</v>
       </c>
       <c r="J19" t="n">
-        <v>40884.01555694803</v>
+        <v>5346517.993790388</v>
       </c>
       <c r="K19" t="n">
-        <v>39797.44527272834</v>
+        <v>5347790.168307565</v>
       </c>
       <c r="L19" t="n">
-        <v>38764.97454473656</v>
+        <v>5348972.950091653</v>
       </c>
       <c r="M19" t="n">
-        <v>37783.3192165331</v>
+        <v>5350071.604109582</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2150266.805625778</v>
+        <v>2720490.744307496</v>
       </c>
       <c r="C20" t="n">
-        <v>2150099.920736108</v>
+        <v>2708411.776309215</v>
       </c>
       <c r="D20" t="n">
-        <v>2149968.983439725</v>
+        <v>2696870.111446254</v>
       </c>
       <c r="E20" t="n">
-        <v>2149867.792090243</v>
+        <v>2685843.262303635</v>
       </c>
       <c r="F20" t="n">
-        <v>2149791.032292973</v>
+        <v>2675308.910615131</v>
       </c>
       <c r="G20" t="n">
-        <v>2149734.160661273</v>
+        <v>2665245.080210432</v>
       </c>
       <c r="H20" t="n">
-        <v>2149693.302641559</v>
+        <v>2655630.271059617</v>
       </c>
       <c r="I20" t="n">
-        <v>2149665.162923258</v>
+        <v>2646443.561052658</v>
       </c>
       <c r="J20" t="n">
-        <v>2149646.947054129</v>
+        <v>2637664.681123167</v>
       </c>
       <c r="K20" t="n">
-        <v>2149636.292994659</v>
+        <v>2629274.068455957</v>
       </c>
       <c r="L20" t="n">
-        <v>2149631.21145393</v>
+        <v>2621252.901766941</v>
       </c>
       <c r="M20" t="n">
-        <v>2149630.03396705</v>
+        <v>2613583.122012421</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1113977.327030316</v>
+        <v>3103377.014022496</v>
       </c>
       <c r="C21" t="n">
-        <v>1117400.170680156</v>
+        <v>3108191.100471932</v>
       </c>
       <c r="D21" t="n">
-        <v>1120657.315151496</v>
+        <v>3112768.925285097</v>
       </c>
       <c r="E21" t="n">
-        <v>1123756.085575106</v>
+        <v>3117120.396571614</v>
       </c>
       <c r="F21" t="n">
-        <v>1126703.71031554</v>
+        <v>3121255.388267584</v>
       </c>
       <c r="G21" t="n">
-        <v>1129507.274240345</v>
+        <v>3125183.661621377</v>
       </c>
       <c r="H21" t="n">
-        <v>1132173.682513677</v>
+        <v>3128914.802098591</v>
       </c>
       <c r="I21" t="n">
-        <v>1134709.633243585</v>
+        <v>3132458.169594366</v>
       </c>
       <c r="J21" t="n">
-        <v>1137121.597536407</v>
+        <v>3135822.860045191</v>
       </c>
       <c r="K21" t="n">
-        <v>1139415.805705991</v>
+        <v>3139017.676724028</v>
       </c>
       <c r="L21" t="n">
-        <v>1141598.238562087</v>
+        <v>3142051.109711401</v>
       </c>
       <c r="M21" t="n">
-        <v>1143674.622858454</v>
+        <v>3144931.322202947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>716932.3285986818</v>
+        <v>10570612.81167047</v>
       </c>
       <c r="C22" t="n">
-        <v>711850.4185347371</v>
+        <v>10596566.83397081</v>
       </c>
       <c r="D22" t="n">
-        <v>706970.1624063309</v>
+        <v>10621041.47067699</v>
       </c>
       <c r="E22" t="n">
-        <v>702287.4831670485</v>
+        <v>10644129.23727974</v>
       </c>
       <c r="F22" t="n">
-        <v>697797.4632809889</v>
+        <v>10665916.73320666</v>
       </c>
       <c r="G22" t="n">
-        <v>693494.5602858365</v>
+        <v>10686484.98400627</v>
       </c>
       <c r="H22" t="n">
-        <v>689372.7845273688</v>
+        <v>10705909.7718225</v>
       </c>
       <c r="I22" t="n">
-        <v>685425.8449218571</v>
+        <v>10724261.95311627</v>
       </c>
       <c r="J22" t="n">
-        <v>681647.267776357</v>
+        <v>10741607.76289873</v>
       </c>
       <c r="K22" t="n">
-        <v>678030.4929771386</v>
+        <v>10758009.10499039</v>
       </c>
       <c r="L22" t="n">
-        <v>674568.9512182437</v>
+        <v>10773523.82806069</v>
       </c>
       <c r="M22" t="n">
-        <v>671256.1253983434</v>
+        <v>10788205.98738527</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41878.5859039668</v>
+        <v>6945081.513574719</v>
       </c>
       <c r="C23" t="n">
-        <v>41293.32656484982</v>
+        <v>6942421.701728322</v>
       </c>
       <c r="D23" t="n">
-        <v>40733.91758513916</v>
+        <v>6939888.767709374</v>
       </c>
       <c r="E23" t="n">
-        <v>40199.43714531767</v>
+        <v>6937471.941119969</v>
       </c>
       <c r="F23" t="n">
-        <v>39688.93238859158</v>
+        <v>6935161.709037773</v>
       </c>
       <c r="G23" t="n">
-        <v>39201.43508911179</v>
+        <v>6932949.647052489</v>
       </c>
       <c r="H23" t="n">
-        <v>38735.97420529649</v>
+        <v>6930828.274275243</v>
       </c>
       <c r="I23" t="n">
-        <v>38291.58583186241</v>
+        <v>6928790.928867042</v>
       </c>
       <c r="J23" t="n">
-        <v>37867.32098797942</v>
+        <v>6926831.661128663</v>
       </c>
       <c r="K23" t="n">
-        <v>37462.2516127741</v>
+        <v>6924945.141622707</v>
       </c>
       <c r="L23" t="n">
-        <v>37075.47508150758</v>
+        <v>6923126.582155891</v>
       </c>
       <c r="M23" t="n">
-        <v>36706.1175075036</v>
+        <v>6921371.667775489</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9663497.177825183</v>
+        <v>8688445.41331628</v>
       </c>
       <c r="C24" t="n">
-        <v>9689575.589294955</v>
+        <v>8715260.188251898</v>
       </c>
       <c r="D24" t="n">
-        <v>9714355.030485675</v>
+        <v>8740586.326684982</v>
       </c>
       <c r="E24" t="n">
-        <v>9737898.415452257</v>
+        <v>8764515.501669884</v>
       </c>
       <c r="F24" t="n">
-        <v>9760266.755494937</v>
+        <v>8787133.582567662</v>
       </c>
       <c r="G24" t="n">
-        <v>9781518.984808728</v>
+        <v>8808520.971445665</v>
       </c>
       <c r="H24" t="n">
-        <v>9801711.839039341</v>
+        <v>8828752.926776797</v>
       </c>
       <c r="I24" t="n">
-        <v>9820899.777890861</v>
+        <v>8847899.873836666</v>
       </c>
       <c r="J24" t="n">
-        <v>9839134.944112748</v>
+        <v>8866027.701376811</v>
       </c>
       <c r="K24" t="n">
-        <v>9856467.152279675</v>
+        <v>8883198.04433696</v>
       </c>
       <c r="L24" t="n">
-        <v>9872943.901712313</v>
+        <v>8899468.552509263</v>
       </c>
       <c r="M24" t="n">
-        <v>9888610.408707172</v>
+        <v>8914893.145212859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2841585.893450911</v>
+        <v>4922481.946671963</v>
       </c>
       <c r="C25" t="n">
-        <v>2837502.059360299</v>
+        <v>4918604.970393686</v>
       </c>
       <c r="D25" t="n">
-        <v>2833628.29095817</v>
+        <v>4914905.970430329</v>
       </c>
       <c r="E25" t="n">
-        <v>2829952.445082949</v>
+        <v>4911373.803595196</v>
       </c>
       <c r="F25" t="n">
-        <v>2826462.990286856</v>
+        <v>4907998.145486582</v>
       </c>
       <c r="G25" t="n">
-        <v>2823149.008800112</v>
+        <v>4904769.429575227</v>
       </c>
       <c r="H25" t="n">
-        <v>2820000.189220729</v>
+        <v>4901678.789378712</v>
       </c>
       <c r="I25" t="n">
-        <v>2817006.812375072</v>
+        <v>4898718.004065786</v>
       </c>
       <c r="J25" t="n">
-        <v>2814159.732282967</v>
+        <v>4895879.447643217</v>
       </c>
       <c r="K25" t="n">
-        <v>2811450.353750521</v>
+        <v>4893156.041748613</v>
       </c>
       <c r="L25" t="n">
-        <v>2808870.607773326</v>
+        <v>4890541.211977584</v>
       </c>
       <c r="M25" t="n">
-        <v>2806412.92567642</v>
+        <v>4888028.847616468</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9656917.51016514</v>
+        <v>10286457.3906353</v>
       </c>
       <c r="C26" t="n">
-        <v>9697885.358552992</v>
+        <v>10305105.14638283</v>
       </c>
       <c r="D26" t="n">
-        <v>9736706.651202336</v>
+        <v>10322755.7881412</v>
       </c>
       <c r="E26" t="n">
-        <v>9773506.273903742</v>
+        <v>10339464.92988259</v>
       </c>
       <c r="F26" t="n">
-        <v>9808401.853596821</v>
+        <v>10355285.38430195</v>
       </c>
       <c r="G26" t="n">
-        <v>9841504.107923239</v>
+        <v>10370267.23379893</v>
       </c>
       <c r="H26" t="n">
-        <v>9872917.191080004</v>
+        <v>10384457.91128379</v>
       </c>
       <c r="I26" t="n">
-        <v>9902739.033793107</v>
+        <v>10397902.2888478</v>
       </c>
       <c r="J26" t="n">
-        <v>9931061.675563067</v>
+        <v>10410642.7724446</v>
       </c>
       <c r="K26" t="n">
-        <v>9957971.587650999</v>
+        <v>10422719.4008591</v>
       </c>
       <c r="L26" t="n">
-        <v>9983549.985634074</v>
+        <v>10434169.94741908</v>
       </c>
       <c r="M26" t="n">
-        <v>10007873.13057581</v>
+        <v>10445030.02310756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14213244.12707949</v>
+        <v>4203519.075346146</v>
       </c>
       <c r="C27" t="n">
-        <v>14269908.45442909</v>
+        <v>4217269.317195217</v>
       </c>
       <c r="D27" t="n">
-        <v>14323509.18970028</v>
+        <v>4230214.859738396</v>
       </c>
       <c r="E27" t="n">
-        <v>14374234.9676559</v>
+        <v>4242407.872819196</v>
       </c>
       <c r="F27" t="n">
-        <v>14422262.10467196</v>
+        <v>4253897.104885189</v>
       </c>
       <c r="G27" t="n">
-        <v>14467755.38963711</v>
+        <v>4264728.070278274</v>
       </c>
       <c r="H27" t="n">
-        <v>14510868.83118331</v>
+        <v>4274943.235499283</v>
       </c>
       <c r="I27" t="n">
-        <v>14551746.36233777</v>
+        <v>4284582.202169944</v>
       </c>
       <c r="J27" t="n">
-        <v>14590522.50392085</v>
+        <v>4293681.88498331</v>
       </c>
       <c r="K27" t="n">
-        <v>14627322.98816699</v>
+        <v>4302276.68338481</v>
       </c>
       <c r="L27" t="n">
-        <v>14662265.34419581</v>
+        <v>4310398.646097483</v>
       </c>
       <c r="M27" t="n">
-        <v>14695459.44698319</v>
+        <v>4318077.627916314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8641669.616583943</v>
+        <v>10544616.9151692</v>
       </c>
       <c r="C28" t="n">
-        <v>8742565.606415808</v>
+        <v>10550798.42891406</v>
       </c>
       <c r="D28" t="n">
-        <v>8838505.542679548</v>
+        <v>10556394.26718779</v>
       </c>
       <c r="E28" t="n">
-        <v>8929745.618576884</v>
+        <v>10561461.87408382</v>
       </c>
       <c r="F28" t="n">
-        <v>9016531.030818701</v>
+        <v>10566052.56362337</v>
       </c>
       <c r="G28" t="n">
-        <v>9099095.94683063</v>
+        <v>10570212.21693658</v>
       </c>
       <c r="H28" t="n">
-        <v>9177663.577792168</v>
+        <v>10573981.897337</v>
       </c>
       <c r="I28" t="n">
-        <v>9252446.337470174</v>
+        <v>10577398.39294254</v>
       </c>
       <c r="J28" t="n">
-        <v>9323646.069500327</v>
+        <v>10580494.69544953</v>
       </c>
       <c r="K28" t="n">
-        <v>9391454.328203499</v>
+        <v>10583300.42266409</v>
       </c>
       <c r="L28" t="n">
-        <v>9456052.700201213</v>
+        <v>10585842.19153091</v>
       </c>
       <c r="M28" t="n">
-        <v>9517613.156005025</v>
+        <v>10588143.94760407</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10052922.88988304</v>
+        <v>1644105.935646255</v>
       </c>
       <c r="C29" t="n">
-        <v>10155514.28056532</v>
+        <v>1656164.177278779</v>
       </c>
       <c r="D29" t="n">
-        <v>10252828.29515189</v>
+        <v>1667556.392636083</v>
       </c>
       <c r="E29" t="n">
-        <v>10345162.06205404</v>
+        <v>1678324.864489112</v>
       </c>
       <c r="F29" t="n">
-        <v>10432797.02229929</v>
+        <v>1688509.052134786</v>
       </c>
       <c r="G29" t="n">
-        <v>10515999.38339883</v>
+        <v>1698145.766781218</v>
       </c>
       <c r="H29" t="n">
-        <v>10595020.63837618</v>
+        <v>1707269.34028035</v>
       </c>
       <c r="I29" t="n">
-        <v>10670098.13101125</v>
+        <v>1715911.786486246</v>
       </c>
       <c r="J29" t="n">
-        <v>10741455.65173519</v>
+        <v>1724102.954791613</v>
       </c>
       <c r="K29" t="n">
-        <v>10809304.05135977</v>
+        <v>1731870.675605461</v>
       </c>
       <c r="L29" t="n">
-        <v>10873841.86230886</v>
+        <v>1739240.897707887</v>
       </c>
       <c r="M29" t="n">
-        <v>10935255.91898894</v>
+        <v>1746237.817538861</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37527100.96183378</v>
+        <v>570623.7320764158</v>
       </c>
       <c r="C30" t="n">
-        <v>37597735.31099367</v>
+        <v>573240.2586820051</v>
       </c>
       <c r="D30" t="n">
-        <v>37664696.50260651</v>
+        <v>575692.6356882127</v>
       </c>
       <c r="E30" t="n">
-        <v>37728171.84099931</v>
+        <v>577993.1788701527</v>
       </c>
       <c r="F30" t="n">
-        <v>37788341.78678387</v>
+        <v>580153.1766188238</v>
       </c>
       <c r="G30" t="n">
-        <v>37845379.66103959</v>
+        <v>582182.9790012371</v>
       </c>
       <c r="H30" t="n">
-        <v>37899451.47173178</v>
+        <v>584092.0795182446</v>
       </c>
       <c r="I30" t="n">
-        <v>37950715.84166104</v>
+        <v>585889.1899987264</v>
       </c>
       <c r="J30" t="n">
-        <v>37999324.01969665</v>
+        <v>587582.3090825183</v>
       </c>
       <c r="K30" t="n">
-        <v>38045419.95953351</v>
+        <v>589178.7847493626</v>
       </c>
       <c r="L30" t="n">
-        <v>38089140.45235384</v>
+        <v>590685.3713420192</v>
       </c>
       <c r="M30" t="n">
-        <v>38130615.3016988</v>
+        <v>592108.2815179983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37301600.27819474</v>
+        <v>817231.141393017</v>
       </c>
       <c r="C31" t="n">
-        <v>37314157.04149507</v>
+        <v>819917.4202453643</v>
       </c>
       <c r="D31" t="n">
-        <v>37326030.76256369</v>
+        <v>822470.0133484229</v>
       </c>
       <c r="E31" t="n">
-        <v>37337241.0432283</v>
+        <v>824895.7565090284</v>
       </c>
       <c r="F31" t="n">
-        <v>37347809.42039646</v>
+        <v>827201.1735665202</v>
       </c>
       <c r="G31" t="n">
-        <v>37357758.82689039</v>
+        <v>829392.4846721701</v>
       </c>
       <c r="H31" t="n">
-        <v>37367113.13562512</v>
+        <v>831475.614880994</v>
       </c>
       <c r="I31" t="n">
-        <v>37375896.7775622</v>
+        <v>833456.2030658536</v>
       </c>
       <c r="J31" t="n">
-        <v>37384134.42436466</v>
+        <v>835339.6111404561</v>
       </c>
       <c r="K31" t="n">
-        <v>37391850.72745049</v>
+        <v>837130.9335457534</v>
       </c>
       <c r="L31" t="n">
-        <v>37399070.1058633</v>
+        <v>838835.0069479905</v>
       </c>
       <c r="M31" t="n">
-        <v>37405816.57610153</v>
+        <v>840456.4200848788</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>494299.6702452451</v>
+        <v>1627294.61416005</v>
       </c>
       <c r="C32" t="n">
-        <v>500667.1270742863</v>
+        <v>1632148.555674376</v>
       </c>
       <c r="D32" t="n">
-        <v>506728.471969638</v>
+        <v>1636714.686500974</v>
       </c>
       <c r="E32" t="n">
-        <v>512498.8423456401</v>
+        <v>1641013.216411962</v>
       </c>
       <c r="F32" t="n">
-        <v>517992.811664138</v>
+        <v>1645062.764885989</v>
       </c>
       <c r="G32" t="n">
-        <v>523224.372340709</v>
+        <v>1648880.495782953</v>
       </c>
       <c r="H32" t="n">
-        <v>528206.9269002602</v>
+        <v>1652482.240108723</v>
       </c>
       <c r="I32" t="n">
-        <v>532953.2859836817</v>
+        <v>1655882.607949755</v>
       </c>
       <c r="J32" t="n">
-        <v>537475.6719846837</v>
+        <v>1659095.090556422</v>
       </c>
       <c r="K32" t="n">
-        <v>541785.7272527069</v>
+        <v>1662132.153462819</v>
       </c>
       <c r="L32" t="n">
-        <v>545894.5259413086</v>
+        <v>1665005.321449647</v>
       </c>
       <c r="M32" t="n">
-        <v>549812.5887155198</v>
+        <v>1667725.256083141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3439575.542221993</v>
+        <v>2269278.874697359</v>
       </c>
       <c r="C33" t="n">
-        <v>3458321.896161415</v>
+        <v>2277925.696483612</v>
       </c>
       <c r="D33" t="n">
-        <v>3476065.103999764</v>
+        <v>2286073.878432931</v>
       </c>
       <c r="E33" t="n">
-        <v>3492866.106252931</v>
+        <v>2293757.686899064</v>
       </c>
       <c r="F33" t="n">
-        <v>3508781.984012134</v>
+        <v>2301008.708169265</v>
       </c>
       <c r="G33" t="n">
-        <v>3523866.187668614</v>
+        <v>2307856.081738599</v>
       </c>
       <c r="H33" t="n">
-        <v>3538168.756014019</v>
+        <v>2314326.711072579</v>
       </c>
       <c r="I33" t="n">
-        <v>3551736.525469162</v>
+        <v>2320445.454284372</v>
       </c>
       <c r="J33" t="n">
-        <v>3564613.32930921</v>
+        <v>2326235.29685965</v>
       </c>
       <c r="K33" t="n">
-        <v>3576840.186874963</v>
+        <v>2331717.508311579</v>
       </c>
       <c r="L33" t="n">
-        <v>3588455.482838199</v>
+        <v>2336911.784422603</v>
       </c>
       <c r="M33" t="n">
-        <v>3599495.136682063</v>
+        <v>2341836.376542825</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9067316.57708776</v>
+        <v>2635443.951717667</v>
       </c>
       <c r="C34" t="n">
-        <v>9117600.091977686</v>
+        <v>2640390.196031202</v>
       </c>
       <c r="D34" t="n">
-        <v>9165149.218703985</v>
+        <v>2645068.243101463</v>
       </c>
       <c r="E34" t="n">
-        <v>9210132.724066406</v>
+        <v>2649493.536582168</v>
       </c>
       <c r="F34" t="n">
-        <v>9252708.607736036</v>
+        <v>2653680.668888427</v>
       </c>
       <c r="G34" t="n">
-        <v>9293024.717409283</v>
+        <v>2657643.41532883</v>
       </c>
       <c r="H34" t="n">
-        <v>9331219.346958116</v>
+        <v>2661394.769020621</v>
       </c>
       <c r="I34" t="n">
-        <v>9367421.814237058</v>
+        <v>2664946.976188201</v>
       </c>
       <c r="J34" t="n">
-        <v>9401753.016118884</v>
+        <v>2668311.571493462</v>
       </c>
       <c r="K34" t="n">
-        <v>9434325.959130377</v>
+        <v>2671499.413101029</v>
       </c>
       <c r="L34" t="n">
-        <v>9465246.264679581</v>
+        <v>2674520.717222497</v>
       </c>
       <c r="M34" t="n">
-        <v>9494612.648397863</v>
+        <v>2677385.091935512</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4427482.426963486</v>
+        <v>1557402.868661036</v>
       </c>
       <c r="C35" t="n">
-        <v>4452179.307612173</v>
+        <v>1563447.596973585</v>
       </c>
       <c r="D35" t="n">
-        <v>4475502.004366696</v>
+        <v>1569107.666706257</v>
       </c>
       <c r="E35" t="n">
-        <v>4497539.628684089</v>
+        <v>1574412.702491877</v>
       </c>
       <c r="F35" t="n">
-        <v>4518374.98673296</v>
+        <v>1579389.740095695</v>
       </c>
       <c r="G35" t="n">
-        <v>4538085.039390415</v>
+        <v>1584063.46986435</v>
       </c>
       <c r="H35" t="n">
-        <v>4556741.329956234</v>
+        <v>1588456.456893211</v>
       </c>
       <c r="I35" t="n">
-        <v>4574410.381463826</v>
+        <v>1592589.339978417</v>
       </c>
       <c r="J35" t="n">
-        <v>4591154.065435238</v>
+        <v>1596481.011291251</v>
       </c>
       <c r="K35" t="n">
-        <v>4607029.943881765</v>
+        <v>1600148.778577367</v>
       </c>
       <c r="L35" t="n">
-        <v>4622091.586284637</v>
+        <v>1603608.511548236</v>
       </c>
       <c r="M35" t="n">
-        <v>4636388.863228515</v>
+        <v>1606874.773992782</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3212770.550167475</v>
+        <v>1200264.547157273</v>
       </c>
       <c r="C36" t="n">
-        <v>3212311.344929209</v>
+        <v>1200217.755481448</v>
       </c>
       <c r="D36" t="n">
-        <v>3211835.655326575</v>
+        <v>1200138.748135667</v>
       </c>
       <c r="E36" t="n">
-        <v>3211347.71627358</v>
+        <v>1200032.233863601</v>
       </c>
       <c r="F36" t="n">
-        <v>3210851.052247694</v>
+        <v>1199902.343930744</v>
       </c>
       <c r="G36" t="n">
-        <v>3210348.593762245</v>
+        <v>1199752.698981347</v>
       </c>
       <c r="H36" t="n">
-        <v>3209842.774453009</v>
+        <v>1199586.468620289</v>
       </c>
       <c r="I36" t="n">
-        <v>3209335.612046009</v>
+        <v>1199406.424418828</v>
       </c>
       <c r="J36" t="n">
-        <v>3208828.775925817</v>
+        <v>1199214.986997554</v>
       </c>
       <c r="K36" t="n">
-        <v>3208323.643558497</v>
+        <v>1199014.267789625</v>
       </c>
       <c r="L36" t="n">
-        <v>3207821.347641958</v>
+        <v>1198806.106038041</v>
       </c>
       <c r="M36" t="n">
-        <v>3207322.815540658</v>
+        <v>1198592.101534549</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5296531.017989554</v>
+        <v>3804472.245899014</v>
       </c>
       <c r="C37" t="n">
-        <v>5298542.047356196</v>
+        <v>3804251.219143374</v>
       </c>
       <c r="D37" t="n">
-        <v>5300430.588349011</v>
+        <v>3803990.012142068</v>
       </c>
       <c r="E37" t="n">
-        <v>5302203.324426208</v>
+        <v>3803694.072326515</v>
       </c>
       <c r="F37" t="n">
-        <v>5303866.626754262</v>
+        <v>3803368.238797124</v>
       </c>
       <c r="G37" t="n">
-        <v>5305426.563326992</v>
+        <v>3803016.807148265</v>
       </c>
       <c r="H37" t="n">
-        <v>5306888.907940559</v>
+        <v>3802643.587724125</v>
       </c>
       <c r="I37" t="n">
-        <v>5308259.149197623</v>
+        <v>3802251.957909178</v>
       </c>
       <c r="J37" t="n">
-        <v>5309542.499645077</v>
+        <v>3801844.909005592</v>
       </c>
       <c r="K37" t="n">
-        <v>5310743.905083351</v>
+        <v>3801425.088215765</v>
       </c>
       <c r="L37" t="n">
-        <v>5311868.054049943</v>
+        <v>3800994.836204128</v>
       </c>
       <c r="M37" t="n">
-        <v>5312919.387454364</v>
+        <v>3800556.22067363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2875050.481359802</v>
+        <v>3682346.601996463</v>
       </c>
       <c r="C38" t="n">
-        <v>2865306.968764268</v>
+        <v>3691364.924651921</v>
       </c>
       <c r="D38" t="n">
-        <v>2855975.720230386</v>
+        <v>3699882.08045768</v>
       </c>
       <c r="E38" t="n">
-        <v>2847042.067132458</v>
+        <v>3707928.891296279</v>
       </c>
       <c r="F38" t="n">
-        <v>2838490.980991378</v>
+        <v>3715534.230492532</v>
       </c>
       <c r="G38" t="n">
-        <v>2830307.28226395</v>
+        <v>3722725.135657184</v>
       </c>
       <c r="H38" t="n">
-        <v>2822475.808176428</v>
+        <v>3729526.917360917</v>
       </c>
       <c r="I38" t="n">
-        <v>2814981.546237409</v>
+        <v>3735963.263369519</v>
       </c>
       <c r="J38" t="n">
-        <v>2807809.739100963</v>
+        <v>3742056.338270143</v>
       </c>
       <c r="K38" t="n">
-        <v>2800945.965576455</v>
+        <v>3747826.878383476</v>
       </c>
       <c r="L38" t="n">
-        <v>2794376.201861307</v>
+        <v>3753294.281935606</v>
       </c>
       <c r="M38" t="n">
-        <v>2788086.866441503</v>
+        <v>3758476.694505602</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3130761.012503251</v>
+        <v>4528456.876285033</v>
       </c>
       <c r="C39" t="n">
-        <v>3136202.071231227</v>
+        <v>4536024.834758824</v>
       </c>
       <c r="D39" t="n">
-        <v>3141387.272945877</v>
+        <v>4543164.246525219</v>
       </c>
       <c r="E39" t="n">
-        <v>3146326.609984472</v>
+        <v>4549902.552655628</v>
       </c>
       <c r="F39" t="n">
-        <v>3151030.119263753</v>
+        <v>4556265.340333238</v>
       </c>
       <c r="G39" t="n">
-        <v>3155507.794267982</v>
+        <v>4562276.464792166</v>
       </c>
       <c r="H39" t="n">
-        <v>3159769.512688834</v>
+        <v>4567958.164405227</v>
       </c>
       <c r="I39" t="n">
-        <v>3163824.97778843</v>
+        <v>4573331.169148216</v>
       </c>
       <c r="J39" t="n">
-        <v>3167683.671703629</v>
+        <v>4578414.802677799</v>
       </c>
       <c r="K39" t="n">
-        <v>3171354.819056068</v>
+        <v>4583227.078251094</v>
       </c>
       <c r="L39" t="n">
-        <v>3174847.359398745</v>
+        <v>4587784.788734045</v>
       </c>
       <c r="M39" t="n">
-        <v>3178169.927176822</v>
+        <v>4592103.590940598</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10643696.42305802</v>
+        <v>4575526.169418496</v>
       </c>
       <c r="C40" t="n">
-        <v>10673854.38142547</v>
+        <v>4582208.422391608</v>
       </c>
       <c r="D40" t="n">
-        <v>10702377.06672002</v>
+        <v>4588464.233839029</v>
       </c>
       <c r="E40" t="n">
-        <v>10729362.5381372</v>
+        <v>4594324.350529328</v>
       </c>
       <c r="F40" t="n">
-        <v>10754902.88709033</v>
+        <v>4599817.10259521</v>
       </c>
       <c r="G40" t="n">
-        <v>10779084.55736266</v>
+        <v>4604968.600605085</v>
       </c>
       <c r="H40" t="n">
-        <v>10801988.65662685</v>
+        <v>4609802.917058026</v>
       </c>
       <c r="I40" t="n">
-        <v>10823691.2581327</v>
+        <v>4614342.253330365</v>
       </c>
       <c r="J40" t="n">
-        <v>10844263.69162969</v>
+        <v>4618607.093085498</v>
       </c>
       <c r="K40" t="n">
-        <v>10863772.8228426</v>
+        <v>4622616.343121421</v>
       </c>
       <c r="L40" t="n">
-        <v>10882281.32101601</v>
+        <v>4626387.462590636</v>
       </c>
       <c r="M40" t="n">
-        <v>10899847.91425225</v>
+        <v>4629936.581479659</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7042825.151668686</v>
+        <v>2738392.933409097</v>
       </c>
       <c r="C41" t="n">
-        <v>7040375.907811012</v>
+        <v>2743075.115530821</v>
       </c>
       <c r="D41" t="n">
-        <v>7038050.362547338</v>
+        <v>2747477.44812086</v>
       </c>
       <c r="E41" t="n">
-        <v>7035835.775183424</v>
+        <v>2751618.419261277</v>
       </c>
       <c r="F41" t="n">
-        <v>7033721.043390397</v>
+        <v>2755515.240745438</v>
       </c>
       <c r="G41" t="n">
-        <v>7031696.482044302</v>
+        <v>2759183.931896484</v>
       </c>
       <c r="H41" t="n">
-        <v>7029753.632051803</v>
+        <v>2762639.399290472</v>
       </c>
       <c r="I41" t="n">
-        <v>7027885.095140032</v>
+        <v>2765895.512297448</v>
       </c>
       <c r="J41" t="n">
-        <v>7026084.391128525</v>
+        <v>2768965.174422804</v>
       </c>
       <c r="K41" t="n">
-        <v>7024345.834642798</v>
+        <v>2771860.390487008</v>
       </c>
       <c r="L41" t="n">
-        <v>7022664.428646252</v>
+        <v>2774592.329723861</v>
       </c>
       <c r="M41" t="n">
-        <v>7021035.772512581</v>
+        <v>2777171.384912202</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8639929.013254344</v>
+        <v>3640140.120187409</v>
       </c>
       <c r="C42" t="n">
-        <v>8668928.961499289</v>
+        <v>3644866.403014937</v>
       </c>
       <c r="D42" t="n">
-        <v>8696364.345055342</v>
+        <v>3649297.731033223</v>
       </c>
       <c r="E42" t="n">
-        <v>8722329.373826727</v>
+        <v>3653454.363119008</v>
       </c>
       <c r="F42" t="n">
-        <v>8746912.432962269</v>
+        <v>3657355.095098756</v>
       </c>
       <c r="G42" t="n">
-        <v>8770196.411085159</v>
+        <v>3661017.361970013</v>
       </c>
       <c r="H42" t="n">
-        <v>8792259.016560644</v>
+        <v>3664457.334454551</v>
       </c>
       <c r="I42" t="n">
-        <v>8813173.081267133</v>
+        <v>3667690.009879893</v>
       </c>
       <c r="J42" t="n">
-        <v>8833006.851494461</v>
+        <v>3670729.297460493</v>
       </c>
       <c r="K42" t="n">
-        <v>8851824.265731722</v>
+        <v>3673588.09811349</v>
       </c>
       <c r="L42" t="n">
-        <v>8869685.21923539</v>
+        <v>3676278.378981868</v>
       </c>
       <c r="M42" t="n">
-        <v>8886645.81540297</v>
+        <v>3678811.242877029</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5029447.455713138</v>
+        <v>2803565.140947479</v>
       </c>
       <c r="C43" t="n">
-        <v>5027076.732216298</v>
+        <v>2805251.700336059</v>
       </c>
       <c r="D43" t="n">
-        <v>5024820.747762051</v>
+        <v>2806832.385764489</v>
       </c>
       <c r="E43" t="n">
-        <v>5022671.394675769</v>
+        <v>2808313.136131629</v>
       </c>
       <c r="F43" t="n">
-        <v>5020621.22122151</v>
+        <v>2809699.673066217</v>
       </c>
       <c r="G43" t="n">
-        <v>5018663.383741496</v>
+        <v>2810997.483331329</v>
       </c>
       <c r="H43" t="n">
-        <v>5016791.599793369</v>
+        <v>2812211.807973628</v>
       </c>
       <c r="I43" t="n">
-        <v>5015000.103066016</v>
+        <v>2813347.636855734</v>
       </c>
       <c r="J43" t="n">
-        <v>5013283.600589989</v>
+        <v>2814409.707436961</v>
       </c>
       <c r="K43" t="n">
-        <v>5011637.23253831</v>
+        <v>2815402.506867205</v>
       </c>
       <c r="L43" t="n">
-        <v>5010056.534770232</v>
+        <v>2816330.276622904</v>
       </c>
       <c r="M43" t="n">
-        <v>5008537.404154656</v>
+        <v>2817197.01905564</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10388693.35800752</v>
+        <v>5271337.497643046</v>
       </c>
       <c r="C44" t="n">
-        <v>10410537.65149662</v>
+        <v>5276410.598159885</v>
       </c>
       <c r="D44" t="n">
-        <v>10431251.77236485</v>
+        <v>5281181.737311866</v>
       </c>
       <c r="E44" t="n">
-        <v>10450896.82261567</v>
+        <v>5285668.848920349</v>
       </c>
       <c r="F44" t="n">
-        <v>10469530.91728032</v>
+        <v>5289888.933791153</v>
       </c>
       <c r="G44" t="n">
-        <v>10487209.26373225</v>
+        <v>5293858.075233703</v>
       </c>
       <c r="H44" t="n">
-        <v>10503984.24817511</v>
+        <v>5297591.461751156</v>
       </c>
       <c r="I44" t="n">
-        <v>10519905.52821472</v>
+        <v>5301103.415085435</v>
       </c>
       <c r="J44" t="n">
-        <v>10535020.13029923</v>
+        <v>5304407.422118651</v>
       </c>
       <c r="K44" t="n">
-        <v>10549372.5508142</v>
+        <v>5307516.169415642</v>
       </c>
       <c r="L44" t="n">
-        <v>10563004.85963346</v>
+        <v>5310441.57942031</v>
       </c>
       <c r="M44" t="n">
-        <v>10575956.80502801</v>
+        <v>5313194.847508619</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4293712.20441702</v>
+        <v>2708585.052265156</v>
       </c>
       <c r="C45" t="n">
-        <v>4310172.901135787</v>
+        <v>2711457.877658322</v>
       </c>
       <c r="D45" t="n">
-        <v>4325718.393526942</v>
+        <v>2714155.639455097</v>
       </c>
       <c r="E45" t="n">
-        <v>4340404.100888584</v>
+        <v>2716688.878871001</v>
       </c>
       <c r="F45" t="n">
-        <v>4354282.181630295</v>
+        <v>2719067.591906033</v>
       </c>
       <c r="G45" t="n">
-        <v>4367401.668863088</v>
+        <v>2721301.235058475</v>
       </c>
       <c r="H45" t="n">
-        <v>4379808.612712983</v>
+        <v>2723398.736314902</v>
       </c>
       <c r="I45" t="n">
-        <v>4391546.226215865</v>
+        <v>2725368.510107793</v>
       </c>
       <c r="J45" t="n">
-        <v>4402655.032263666</v>
+        <v>2727218.475165669</v>
       </c>
       <c r="K45" t="n">
-        <v>4413173.009603031</v>
+        <v>2728956.074385308</v>
       </c>
       <c r="L45" t="n">
-        <v>4423135.736329947</v>
+        <v>2730588.29601766</v>
       </c>
       <c r="M45" t="n">
-        <v>4432576.52968578</v>
+        <v>2732121.695603499</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10782865.08654095</v>
+        <v>2138635.60904112</v>
       </c>
       <c r="C46" t="n">
-        <v>10795363.97471341</v>
+        <v>2138290.075344757</v>
       </c>
       <c r="D46" t="n">
-        <v>10806989.7062773</v>
+        <v>2137942.939125358</v>
       </c>
       <c r="E46" t="n">
-        <v>10817814.12893515</v>
+        <v>2137594.509709788</v>
       </c>
       <c r="F46" t="n">
-        <v>10827902.32939377</v>
+        <v>2137245.107629926</v>
       </c>
       <c r="G46" t="n">
-        <v>10837313.33397855</v>
+        <v>2136895.058165533</v>
       </c>
       <c r="H46" t="n">
-        <v>10846100.73238419</v>
+        <v>2136544.685944133</v>
       </c>
       <c r="I46" t="n">
-        <v>10854313.23306634</v>
+        <v>2136194.310511454</v>
       </c>
       <c r="J46" t="n">
-        <v>10861995.15789143</v>
+        <v>2135844.242775613</v>
       </c>
       <c r="K46" t="n">
-        <v>10869186.88288403</v>
+        <v>2135494.78222518</v>
       </c>
       <c r="L46" t="n">
-        <v>10875925.23114051</v>
+        <v>2135146.214820572</v>
       </c>
       <c r="M46" t="n">
-        <v>10882243.82332766</v>
+        <v>2134798.811465357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1606194.887100551</v>
+        <v>1591642.312206924</v>
       </c>
       <c r="C47" t="n">
-        <v>1618788.949867293</v>
+        <v>1604520.209826726</v>
       </c>
       <c r="D47" t="n">
-        <v>1630697.405777406</v>
+        <v>1616695.213543117</v>
       </c>
       <c r="E47" t="n">
-        <v>1641962.825416144</v>
+        <v>1628211.023967355</v>
       </c>
       <c r="F47" t="n">
-        <v>1652625.039949067</v>
+        <v>1639108.542131733</v>
       </c>
       <c r="G47" t="n">
-        <v>1662721.29835191</v>
+        <v>1649426.025674447</v>
       </c>
       <c r="H47" t="n">
-        <v>1672286.420754086</v>
+        <v>1659199.242388438</v>
       </c>
       <c r="I47" t="n">
-        <v>1681352.946812101</v>
+        <v>1668461.619726673</v>
       </c>
       <c r="J47" t="n">
-        <v>1689951.278335124</v>
+        <v>1677244.38924088</v>
       </c>
       <c r="K47" t="n">
-        <v>1698109.81564562</v>
+        <v>1685576.725228511</v>
       </c>
       <c r="L47" t="n">
-        <v>1705855.087355606</v>
+        <v>1693485.877109423</v>
       </c>
       <c r="M47" t="n">
-        <v>1713211.873401396</v>
+        <v>1700997.295253359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>565780.8190406794</v>
+        <v>4283702.015954223</v>
       </c>
       <c r="C48" t="n">
-        <v>568693.439886516</v>
+        <v>4298176.309583344</v>
       </c>
       <c r="D48" t="n">
-        <v>571427.5488934768</v>
+        <v>4311843.623439603</v>
       </c>
       <c r="E48" t="n">
-        <v>573996.1400064388</v>
+        <v>4324754.396733098</v>
       </c>
       <c r="F48" t="n">
-        <v>576411.1656725099</v>
+        <v>4336955.848977763</v>
       </c>
       <c r="G48" t="n">
-        <v>578683.6220992012</v>
+        <v>4348492.15742445</v>
       </c>
       <c r="H48" t="n">
-        <v>580823.6282069525</v>
+        <v>4359404.631575428</v>
       </c>
       <c r="I48" t="n">
-        <v>582840.4985350152</v>
+        <v>4369731.883272503</v>
       </c>
       <c r="J48" t="n">
-        <v>584742.8104067552</v>
+        <v>4379509.991241548</v>
       </c>
       <c r="K48" t="n">
-        <v>586538.465681972</v>
+        <v>4388772.659279153</v>
       </c>
       <c r="L48" t="n">
-        <v>588234.7474398655</v>
+        <v>4397551.367533263</v>
       </c>
       <c r="M48" t="n">
-        <v>589838.3719371269</v>
+        <v>4405875.516527876</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>696652.1683963593</v>
+        <v>622639.5354323275</v>
       </c>
       <c r="C49" t="n">
-        <v>697665.624050525</v>
+        <v>625622.1464804374</v>
       </c>
       <c r="D49" t="n">
-        <v>698620.7586195292</v>
+        <v>628448.1757000461</v>
       </c>
       <c r="E49" t="n">
-        <v>699521.371519939</v>
+        <v>631126.7994173225</v>
       </c>
       <c r="F49" t="n">
-        <v>700370.9794207681</v>
+        <v>633666.6500704642</v>
       </c>
       <c r="G49" t="n">
-        <v>701172.8413274521</v>
+        <v>636075.8442769907</v>
       </c>
       <c r="H49" t="n">
-        <v>701929.9808357349</v>
+        <v>638362.0101757832</v>
       </c>
       <c r="I49" t="n">
-        <v>702645.2059636926</v>
+        <v>640532.3139703684</v>
       </c>
       <c r="J49" t="n">
-        <v>703321.1268995199</v>
+        <v>642593.4856060147</v>
       </c>
       <c r="K49" t="n">
-        <v>703960.1719490094</v>
+        <v>644551.8435254507</v>
       </c>
       <c r="L49" t="n">
-        <v>704564.6019177204</v>
+        <v>646413.318458898</v>
       </c>
       <c r="M49" t="n">
-        <v>705136.5231262138</v>
+        <v>648183.4762169831</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1629555.941374665</v>
+        <v>2254125.913431402</v>
       </c>
       <c r="C50" t="n">
-        <v>1635115.647953776</v>
+        <v>2267724.537094172</v>
       </c>
       <c r="D50" t="n">
-        <v>1640352.43568083</v>
+        <v>2280574.447994325</v>
       </c>
       <c r="E50" t="n">
-        <v>1645288.446713857</v>
+        <v>2292723.026667871</v>
       </c>
       <c r="F50" t="n">
-        <v>1649944.127709171</v>
+        <v>2304214.479061376</v>
       </c>
       <c r="G50" t="n">
-        <v>1654338.369192506</v>
+        <v>2315090.040404156</v>
       </c>
       <c r="H50" t="n">
-        <v>1658488.632968578</v>
+        <v>2325388.169237174</v>
       </c>
       <c r="I50" t="n">
-        <v>1662411.068627681</v>
+        <v>2335144.731409669</v>
       </c>
       <c r="J50" t="n">
-        <v>1666120.620107153</v>
+        <v>2344393.174014136</v>
       </c>
       <c r="K50" t="n">
-        <v>1669631.123182051</v>
+        <v>2353164.689358816</v>
       </c>
       <c r="L50" t="n">
-        <v>1672955.394675637</v>
+        <v>2361488.369177215</v>
       </c>
       <c r="M50" t="n">
-        <v>1676105.314113487</v>
+        <v>2369391.349345371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2225898.858608529</v>
+        <v>2349349.222512122</v>
       </c>
       <c r="C51" t="n">
-        <v>2235015.974382259</v>
+        <v>2366105.027861029</v>
       </c>
       <c r="D51" t="n">
-        <v>2243606.91572658</v>
+        <v>2381968.331251457</v>
       </c>
       <c r="E51" t="n">
-        <v>2251707.894114196</v>
+        <v>2396992.534315009</v>
       </c>
       <c r="F51" t="n">
-        <v>2259352.28865622</v>
+        <v>2411227.817774132</v>
       </c>
       <c r="G51" t="n">
-        <v>2266570.891301349</v>
+        <v>2424721.301807262</v>
       </c>
       <c r="H51" t="n">
-        <v>2273392.128813371</v>
+        <v>2437517.205756359</v>
       </c>
       <c r="I51" t="n">
-        <v>2279842.263918377</v>
+        <v>2449657.005593486</v>
       </c>
       <c r="J51" t="n">
-        <v>2285945.577754006</v>
+        <v>2461179.587894287</v>
       </c>
       <c r="K51" t="n">
-        <v>2291724.535513226</v>
+        <v>2472121.39935074</v>
       </c>
       <c r="L51" t="n">
-        <v>2297199.936970986</v>
+        <v>2482516.591098428</v>
       </c>
       <c r="M51" t="n">
-        <v>2302391.053394116</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2634052.088043287</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2639366.79992424</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2644401.281353652</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2649171.108936317</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2653691.050569348</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2657975.092474356</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2662036.467778929</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2665887.686185136</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2669540.564321086</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2673006.256421708</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2676295.28503678</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2679417.571507856</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1574183.940890727</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1581462.998233037</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1588297.843908921</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1594721.045622045</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1600762.481126336</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1606449.575002767</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1611807.514688051</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1616859.447324036</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1621626.658955724</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1626128.737538569</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1630383.721139285</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1634408.232625661</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1214917.346582616</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1215275.561825393</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1215580.955317914</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1215839.346935363</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1216055.929127416</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1216235.33359481</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1216381.691231869</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1216498.685925538</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1216589.602771349</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1216657.371229861</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1216704.603710739</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1216733.630036369</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3868479.85452768</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3869461.904053841</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3870351.227287109</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3871155.724946645</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3871882.593225289</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3872538.389391017</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3873129.091134158</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3873660.150260135</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3874136.541274754</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3874562.805349476</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3874943.090108701</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3875281.185640031</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3682593.069804303</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3692489.064777501</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3701850.483047098</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3710709.186980128</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3719095.111209542</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3727036.365741752</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3734559.336286277</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3741688.781401217</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3748447.926140428</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3754858.551984839</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3760941.082909383</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3766714.667503521</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4547611.210514566</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4556220.083982931</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4564354.393330146</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4572043.563682012</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4579315.109232135</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4586194.753202265</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4592706.541315403</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4598872.949048474</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4604714.982902981</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4610252.275920294</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4615503.177662328</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4620484.838871926</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4586948.02500288</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4594743.95239198</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4602062.222343462</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4608935.912164557</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4615395.619835852</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4621469.654270404</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4627184.211836942</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4632563.539886701</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4637630.088046137</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4642404.648025559</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4646906.482694576</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4651153.445142396</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2776169.133723039</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2781973.450906828</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2787451.689768765</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2792624.05578398</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2797509.471686717</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2802125.6510185</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2806489.169287615</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2810615.532467198</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2814519.242644787</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2818213.860696997</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2821712.065922212</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2825025.712609697</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3691114.727410071</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3697198.079662522</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3702927.467217786</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3708325.500120623</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3713413.297963453</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3718210.580772156</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3722735.75626629</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3727006.003266521</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3731037.351106705</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3734844.754983757</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3738442.167237446</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3741842.604600325</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2822860.300631608</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2824815.013799723</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2826653.43009005</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2828381.526251763</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2830005.121392592</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2831529.849797532</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2832961.141433624</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2834304.208759798</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2835564.038670271</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2836745.388584021</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2837852.785847172</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2838890.529755275</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5333393.534443811</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5339761.950817131</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5345782.575900085</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5351474.18180399</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5356854.740057901</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5361941.409867965</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5366750.537002705</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5371297.66116802</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5375597.530074965</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5379664.11869422</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5383510.652432252</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5387149.6331852</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2732319.061061686</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2735854.578475425</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2739196.518050179</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2742355.533243287</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2745341.810271476</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2748165.061011064</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2750834.52255918</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2753358.962069951</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2755746.685701437</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2758005.550703741</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2760142.979843874</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2762165.977503935</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2191204.677462179</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2191760.864775099</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2192282.262044344</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2192770.381732278</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2193226.731216846</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2193652.802327946</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2194050.062561218</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2194419.947835635</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2194763.856653742</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2195083.14551107</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2195379.125412062</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2195653.059349068</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1540102.177380931</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1553293.306348652</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1565773.628629196</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1577586.432392463</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1588772.334283333</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1599369.414985504</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1609413.354947433</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1618937.568533525</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1627973.335267909</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1636549.927178849</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1644694.731522582</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1652433.368390005</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4287298.305712432</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4303176.335698344</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4318194.668204248</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4332405.085732993</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4345856.248450618</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4358593.845969401</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4370660.749763396</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4382097.164356958</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4392940.775826249</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4403226.896477897</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4412988.604861181</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4422256.880493574</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>611078.8867448252</v>
-      </c>
-      <c r="C67" t="n">
-        <v>614148.9995972365</v>
-      </c>
-      <c r="D67" t="n">
-        <v>617058.8605211321</v>
-      </c>
-      <c r="E67" t="n">
-        <v>619817.8221774288</v>
-      </c>
-      <c r="F67" t="n">
-        <v>622434.6810015924</v>
-      </c>
-      <c r="G67" t="n">
-        <v>624917.707023384</v>
-      </c>
-      <c r="H67" t="n">
-        <v>627274.6726079211</v>
-      </c>
-      <c r="I67" t="n">
-        <v>629512.8801152799</v>
-      </c>
-      <c r="J67" t="n">
-        <v>631639.1884686593</v>
-      </c>
-      <c r="K67" t="n">
-        <v>633660.0386243202</v>
-      </c>
-      <c r="L67" t="n">
-        <v>635581.4779360089</v>
-      </c>
-      <c r="M67" t="n">
-        <v>637409.1834132504</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2204004.119915649</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2218151.995135821</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2231528.824505758</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2244182.693886433</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2256158.538619172</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2267498.337791368</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2278241.300215222</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2288424.041733988</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2298080.753644306</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2307243.362175345</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2315941.679082956</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2324203.543507382</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2264894.043264031</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2281736.808625273</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2297689.632111818</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2312805.123274297</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2327132.781449273</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2340719.143602759</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2353607.932648286</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2365840.2046073</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2377454.493291453</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2388486.951479137</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2398971.487788364</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2408939.898654342</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>10091204.64390218</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10213656.72201669</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10330416.83536041</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10441749.19468844</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10547909.92548454</v>
-      </c>
-      <c r="G70" t="n">
-        <v>10649146.53377533</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10745697.53146982</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10837792.19831717</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10925650.45984411</v>
-      </c>
-      <c r="K70" t="n">
-        <v>11009482.86274719</v>
-      </c>
-      <c r="L70" t="n">
-        <v>11089490.6313467</v>
-      </c>
-      <c r="M70" t="n">
-        <v>11165865.79054844</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19989424.95015889</v>
-      </c>
-      <c r="C71" t="n">
-        <v>20106682.84462273</v>
-      </c>
-      <c r="D71" t="n">
-        <v>20218007.66348416</v>
-      </c>
-      <c r="E71" t="n">
-        <v>20323723.91378534</v>
-      </c>
-      <c r="F71" t="n">
-        <v>20424139.71818596</v>
-      </c>
-      <c r="G71" t="n">
-        <v>20519547.23913109</v>
-      </c>
-      <c r="H71" t="n">
-        <v>20610223.17053282</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20696429.27941138</v>
-      </c>
-      <c r="J71" t="n">
-        <v>20778412.98271924</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20856407.94698983</v>
-      </c>
-      <c r="L71" t="n">
-        <v>20930634.70053583</v>
-      </c>
-      <c r="M71" t="n">
-        <v>21001301.2497896</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3317636.400223851</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3298471.268892482</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3280107.012769073</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3262517.657477915</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3245676.117074221</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3229554.641561344</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3214125.184015378</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3199359.699170575</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3185230.383794412</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3171709.867821857</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3158771.364010289</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3146388.782791153</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5706230.026708096</v>
-      </c>
-      <c r="C73" t="n">
-        <v>5750610.229072273</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5792779.665056884</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5832855.720310479</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5870950.314638793</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5907169.971410722</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5941615.921886683</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5974384.237391949</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6005565.983187348</v>
-      </c>
-      <c r="K73" t="n">
-        <v>6035247.388660878</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6063510.029287726</v>
-      </c>
-      <c r="M73" t="n">
-        <v>6090431.01643616</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17635808.47890113</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17648668.97347239</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17660880.20504358</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17672469.1972315</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17683462.78595813</v>
-      </c>
-      <c r="G74" t="n">
-        <v>17693887.45354442</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17703769.19135244</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17713133.38815722</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17722004.74144617</v>
-      </c>
-      <c r="K74" t="n">
-        <v>17730407.18891045</v>
-      </c>
-      <c r="L74" t="n">
-        <v>17738363.85758018</v>
-      </c>
-      <c r="M74" t="n">
-        <v>17745897.02818212</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23830796.77295578</v>
-      </c>
-      <c r="C75" t="n">
-        <v>23927880.96426541</v>
-      </c>
-      <c r="D75" t="n">
-        <v>24019801.43408835</v>
-      </c>
-      <c r="E75" t="n">
-        <v>24106866.72457975</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24189366.41918159</v>
-      </c>
-      <c r="G75" t="n">
-        <v>24267572.19817269</v>
-      </c>
-      <c r="H75" t="n">
-        <v>24341738.8594113</v>
-      </c>
-      <c r="I75" t="n">
-        <v>24412105.30121368</v>
-      </c>
-      <c r="J75" t="n">
-        <v>24478895.46518171</v>
-      </c>
-      <c r="K75" t="n">
-        <v>24542319.23756379</v>
-      </c>
-      <c r="L75" t="n">
-        <v>24602573.30841297</v>
-      </c>
-      <c r="M75" t="n">
-        <v>24659841.98833334</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>8641669.616583943</v>
-      </c>
-      <c r="C76" t="n">
-        <v>8742565.606415808</v>
-      </c>
-      <c r="D76" t="n">
-        <v>8838505.542679548</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8929745.618576884</v>
-      </c>
-      <c r="F76" t="n">
-        <v>9016531.030818701</v>
-      </c>
-      <c r="G76" t="n">
-        <v>9099095.94683063</v>
-      </c>
-      <c r="H76" t="n">
-        <v>9177663.577792168</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9252446.337470174</v>
-      </c>
-      <c r="J76" t="n">
-        <v>9323646.069500327</v>
-      </c>
-      <c r="K76" t="n">
-        <v>9391454.328203499</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9456052.700201213</v>
-      </c>
-      <c r="M76" t="n">
-        <v>9517613.156005025</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>10068026.55233395</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10170394.07124788</v>
-      </c>
-      <c r="D77" t="n">
-        <v>10267494.61780602</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10359624.88072723</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10447065.86151636</v>
-      </c>
-      <c r="G77" t="n">
-        <v>10530083.33279979</v>
-      </c>
-      <c r="H77" t="n">
-        <v>10608928.36079639</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10683837.87317789</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10755035.25688088</v>
-      </c>
-      <c r="K77" t="n">
-        <v>10822730.97322261</v>
-      </c>
-      <c r="L77" t="n">
-        <v>10887123.18003571</v>
-      </c>
-      <c r="M77" t="n">
-        <v>10948398.35260987</v>
+        <v>2492397.157338083</v>
       </c>
     </row>
   </sheetData>
